--- a/biorefineries/TAL/analyses/results/TAL_2025/miscellaneous/FOC_breakdown_baseline.xlsx
+++ b/biorefineries/TAL/analyses/results/TAL_2025/miscellaneous/FOC_breakdown_baseline.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\TAL\analyses\results\TAL_2025\miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380B7E83-0197-4C41-9E91-E09FFD8D8617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510B0124-E078-423D-AC82-3F9055A31006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,10 +63,10 @@
     <t>Property insurance</t>
   </si>
   <si>
-    <t>0.7% of ISBL</t>
-  </si>
-  <si>
     <t>Fixed operating cost (FOC)</t>
+  </si>
+  <si>
+    <t>0.7% of FCI</t>
   </si>
 </sst>
 </file>
@@ -421,7 +434,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,18 +485,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>0.52919702899341203</v>
+        <v>1.91287303634546</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>5.9563619421867999</v>
+        <f>SUM(C2:C5)</f>
+        <v>7.3400379495388401</v>
       </c>
     </row>
   </sheetData>
